--- a/REVER_DailyTracker_20200529.xlsx
+++ b/REVER_DailyTracker_20200529.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437DDCDA-1EF4-4650-AD36-A11FF1C59803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FCD974-E2C3-4704-AB20-834F373CE4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="408" windowWidth="20088" windowHeight="11952" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t xml:space="preserve">1) Website- changes are documented.   2) Jiffy- bot issue fixed. 3) RPA- Psummary task working in seleinum.                         </t>
+  </si>
+  <si>
+    <t>28/05/2020</t>
+  </si>
+  <si>
+    <t>DOTNET APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application - Japanese version Translation </t>
+  </si>
+  <si>
+    <t>29/05/2020</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1529,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1567,22 +1579,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="15.6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>

--- a/REVER_DailyTracker_20200529.xlsx
+++ b/REVER_DailyTracker_20200529.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FCD974-E2C3-4704-AB20-834F373CE4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A22C41-7ADA-4C97-A38D-1A509074F799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/REVER_DailyTracker_20200529.xlsx
+++ b/REVER_DailyTracker_20200529.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A22C41-7ADA-4C97-A38D-1A509074F799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5C704-6E25-47DE-88C9-CDB21085B147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="60">
   <si>
     <t>Task</t>
   </si>
@@ -66,9 +66,25 @@
     <t>% of completion</t>
   </si>
   <si>
+    <t>RPA Dotnet</t>
+  </si>
+  <si>
+    <t>[Backend] CRM</t>
+  </si>
+  <si>
     <t>Hold</t>
   </si>
   <si>
+    <t>DotnetAPP</t>
+  </si>
+  <si>
+    <t>Loginpage (Frontend)</t>
+  </si>
+  <si>
+    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
+if any changes or modification can be done.</t>
+  </si>
+  <si>
     <t>29/04/2020</t>
   </si>
   <si>
@@ -87,22 +103,118 @@
     <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
   </si>
   <si>
-    <t>Hayaai, RPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Website- changes are documented.   2) Jiffy- bot issue fixed. 3) RPA- Psummary task working in seleinum.                         </t>
-  </si>
-  <si>
-    <t>28/05/2020</t>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website design- Business page </t>
+  </si>
+  <si>
+    <t>Website design- Contact page &amp; Business page popup</t>
   </si>
   <si>
     <t>DOTNET APP</t>
   </si>
   <si>
-    <t xml:space="preserve">Application - Japanese version Translation </t>
-  </si>
-  <si>
-    <t>29/05/2020</t>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Muji Multi Language(Resource Changing)</t>
+  </si>
+  <si>
+    <t>Hit Counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hit Counter, UserPresentation </t>
+  </si>
+  <si>
+    <t>UserPresentation Chages Completed and design Chages</t>
+  </si>
+  <si>
+    <t>Retrive Values for DB  and Ui Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>tblDeploySchedule, tblDeployStatu, SubnetController, DeploySchedulesController, FoldersController, FormatsController, HomeController, StoreGroupFoldersController, StoreGroupsController, StreamServersController, StreamServerSubnetsController, VideoFilesController, StreamServerFormats</t>
+  </si>
+  <si>
+    <t>tblFolder, tblFolder, tblStreamServer, tblStreamServerSubnet, DeployLogs, DeploySchedules, DeployStatus, Formats, Shared, StoreMst, StoreSubnets, StreamServers, StreamServerSubnets, Subnets, VideoFiles</t>
+  </si>
+  <si>
+    <t>Hit Counter, SocialMedia</t>
+  </si>
+  <si>
+    <t>Retrive table Values for DB  and Ui Design</t>
+  </si>
+  <si>
+    <t>Hit Counter Design Changes Completed, SocialMedia Working</t>
+  </si>
+  <si>
+    <t>CountDrs Testing</t>
+  </si>
+  <si>
+    <t>Matching Values for all centers ssc1-ssc8</t>
+  </si>
+  <si>
+    <t>Mobile Srevice Centers , SocialMedia</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Insert table values</t>
+  </si>
+  <si>
+    <t>retrive db and css design</t>
+  </si>
+  <si>
+    <t>GridView Show the table, Delete</t>
+  </si>
+  <si>
+    <t>Social Media, Count Drs Verified</t>
+  </si>
+  <si>
+    <t>PowerPoint Presentation design and dynamic download</t>
+  </si>
+  <si>
+    <t>Testing RPA_Sales Application</t>
+  </si>
+  <si>
+    <t>Login Page, User Management, Video Management, PPT Management</t>
+  </si>
+  <si>
+    <t>RPA_Sales Application (Language Changing), GSPN Password Changing</t>
+  </si>
+  <si>
+    <t>Login Page, User Management, CRM, SocialMedia, Task Management, Video Management, PPT Management, Dashboard, RPA Sample Reports</t>
+  </si>
+  <si>
+    <t>QMVQR, DOTNET APP</t>
+  </si>
+  <si>
+    <t>PO_Confirmaion data check to verification Completed, RPA_Sales language Resource changing</t>
+  </si>
+  <si>
+    <t>Count Drs data check complted</t>
+  </si>
+  <si>
+    <t>RPA_Sales(CRUD Operations)</t>
+  </si>
+  <si>
+    <t>GridView Show the table, Insert the values</t>
+  </si>
+  <si>
+    <t>QMVAR PO_Confirmaion, RPA_Sales(Hold)</t>
+  </si>
+  <si>
+    <t>Edit, Delete the Records Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVQR, </t>
   </si>
 </sst>
 </file>
@@ -234,9 +346,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -246,7 +356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -263,6 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -284,20 +395,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -617,7 +726,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -652,14 +761,28 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -712,7 +835,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -768,13 +891,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -783,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -837,7 +960,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -896,10 +1019,10 @@
         <v>43950</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="7">
         <v>0.3</v>
@@ -917,10 +1040,10 @@
         <v>43951</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="7">
         <v>0.5</v>
@@ -972,7 +1095,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +1206,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1317,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1205,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1245,29 +1368,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23">
-        <v>43980</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="24">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43956</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7">
         <v>0.6</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
@@ -1280,33 +1443,36 @@
     <row r="14" spans="1:7" s="4" customFormat="1"/>
     <row r="15" spans="1:7" s="4" customFormat="1"/>
     <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1583,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1428,10 +1594,565 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43951</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22">
+        <v>43956</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22">
+        <v>43957</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="24">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22">
+        <v>43958</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="24">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22">
+        <v>43959</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="24">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22">
+        <v>43962</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="24">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22">
+        <v>43963</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="24">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22">
+        <v>43964</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="24">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22">
+        <v>43965</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="24">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22">
+        <v>43966</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="24">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22">
+        <v>43969</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="24">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22">
+        <v>43970</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16" s="24">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22">
+        <v>43971</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17" s="24">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22">
+        <v>43972</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="24">
+        <v>16</v>
+      </c>
+      <c r="B18" s="22">
+        <v>43973</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="24">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22">
+        <v>43977</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1">
+      <c r="A20" s="24">
+        <v>18</v>
+      </c>
+      <c r="B20" s="22">
+        <v>43978</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="24">
+        <v>19</v>
+      </c>
+      <c r="B21" s="22">
+        <v>43979</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="24">
+        <v>20</v>
+      </c>
+      <c r="B22" s="22">
+        <v>43980</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="25">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="9"/>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="10"/>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="11"/>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1528,142 +2249,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +2360,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200529.xlsx
+++ b/REVER_DailyTracker_20200529.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5C704-6E25-47DE-88C9-CDB21085B147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54D2A30-F23D-4E4C-B956-18F6F914B04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -66,25 +66,9 @@
     <t>% of completion</t>
   </si>
   <si>
-    <t>RPA Dotnet</t>
-  </si>
-  <si>
-    <t>[Backend] CRM</t>
-  </si>
-  <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>DotnetAPP</t>
-  </si>
-  <si>
-    <t>Loginpage (Frontend)</t>
-  </si>
-  <si>
-    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
-if any changes or modification can be done.</t>
-  </si>
-  <si>
     <t>29/04/2020</t>
   </si>
   <si>
@@ -97,124 +81,28 @@
     <t>APK sent.</t>
   </si>
   <si>
-    <t>MujiStore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website design- Business page </t>
-  </si>
-  <si>
-    <t>Website design- Contact page &amp; Business page popup</t>
+    <t>Hayaai, RPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Website- changes are documented.   2) Jiffy- bot issue fixed. 3) RPA- Psummary task working in seleinum.                         </t>
+  </si>
+  <si>
+    <t>28/05/2020</t>
   </si>
   <si>
     <t>DOTNET APP</t>
   </si>
   <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>Muji Multi Language(Resource Changing)</t>
-  </si>
-  <si>
-    <t>Hit Counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hit Counter, UserPresentation </t>
-  </si>
-  <si>
-    <t>UserPresentation Chages Completed and design Chages</t>
-  </si>
-  <si>
-    <t>Retrive Values for DB  and Ui Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, </t>
-  </si>
-  <si>
-    <t>tblDeploySchedule, tblDeployStatu, SubnetController, DeploySchedulesController, FoldersController, FormatsController, HomeController, StoreGroupFoldersController, StoreGroupsController, StreamServersController, StreamServerSubnetsController, VideoFilesController, StreamServerFormats</t>
-  </si>
-  <si>
-    <t>tblFolder, tblFolder, tblStreamServer, tblStreamServerSubnet, DeployLogs, DeploySchedules, DeployStatus, Formats, Shared, StoreMst, StoreSubnets, StreamServers, StreamServerSubnets, Subnets, VideoFiles</t>
-  </si>
-  <si>
-    <t>Hit Counter, SocialMedia</t>
-  </si>
-  <si>
-    <t>Retrive table Values for DB  and Ui Design</t>
-  </si>
-  <si>
-    <t>Hit Counter Design Changes Completed, SocialMedia Working</t>
-  </si>
-  <si>
-    <t>CountDrs Testing</t>
-  </si>
-  <si>
-    <t>Matching Values for all centers ssc1-ssc8</t>
-  </si>
-  <si>
-    <t>Mobile Srevice Centers , SocialMedia</t>
-  </si>
-  <si>
-    <t>Social Media</t>
-  </si>
-  <si>
-    <t>Insert table values</t>
-  </si>
-  <si>
-    <t>retrive db and css design</t>
-  </si>
-  <si>
-    <t>GridView Show the table, Delete</t>
-  </si>
-  <si>
-    <t>Social Media, Count Drs Verified</t>
-  </si>
-  <si>
-    <t>PowerPoint Presentation design and dynamic download</t>
-  </si>
-  <si>
-    <t>Testing RPA_Sales Application</t>
-  </si>
-  <si>
-    <t>Login Page, User Management, Video Management, PPT Management</t>
-  </si>
-  <si>
-    <t>RPA_Sales Application (Language Changing), GSPN Password Changing</t>
-  </si>
-  <si>
-    <t>Login Page, User Management, CRM, SocialMedia, Task Management, Video Management, PPT Management, Dashboard, RPA Sample Reports</t>
-  </si>
-  <si>
-    <t>QMVQR, DOTNET APP</t>
-  </si>
-  <si>
-    <t>PO_Confirmaion data check to verification Completed, RPA_Sales language Resource changing</t>
-  </si>
-  <si>
-    <t>Count Drs data check complted</t>
-  </si>
-  <si>
-    <t>RPA_Sales(CRUD Operations)</t>
-  </si>
-  <si>
-    <t>GridView Show the table, Insert the values</t>
-  </si>
-  <si>
-    <t>QMVAR PO_Confirmaion, RPA_Sales(Hold)</t>
-  </si>
-  <si>
-    <t>Edit, Delete the Records Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QMVQR, </t>
+    <t xml:space="preserve">Application - Japanese version Translation </t>
+  </si>
+  <si>
+    <t>29/05/2020</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>Account Report</t>
   </si>
 </sst>
 </file>
@@ -224,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +149,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -346,7 +241,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -356,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -373,7 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -395,18 +291,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -726,18 +627,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -761,28 +662,14 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>15</v>
-      </c>
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -835,7 +722,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -852,15 +739,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -891,13 +778,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -906,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -960,7 +847,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -971,21 +858,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1011,46 +898,136 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>43950</v>
+        <v>43980</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="21" t="s">
         <v>21</v>
       </c>
+      <c r="D2" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="21" spans="2:3">
+      <c r="C21" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="8"/>
+      <c r="C22" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="9"/>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="10"/>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="11"/>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1095,7 +1072,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1104,23 +1081,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1206,7 +1183,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1215,23 +1192,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>43980</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1317,7 +1406,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1326,178 +1415,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G4"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <v>43956</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1583,562 +1517,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="22">
-        <v>43956</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="22">
-        <v>43957</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="24">
-        <v>5</v>
-      </c>
-      <c r="B7" s="22">
-        <v>43958</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="24">
-        <v>6</v>
-      </c>
-      <c r="B8" s="22">
-        <v>43959</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="24">
-        <v>7</v>
-      </c>
-      <c r="B9" s="22">
-        <v>43962</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="24">
-        <v>8</v>
-      </c>
-      <c r="B10" s="22">
-        <v>43963</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="24">
-        <v>9</v>
-      </c>
-      <c r="B11" s="22">
-        <v>43964</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="28">
-        <v>0.6</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="24">
         <v>10</v>
-      </c>
-      <c r="B12" s="22">
-        <v>43965</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="28">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="24">
-        <v>11</v>
-      </c>
-      <c r="B13" s="22">
-        <v>43966</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="24">
-        <v>12</v>
-      </c>
-      <c r="B14" s="22">
-        <v>43969</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15" s="24">
-        <v>13</v>
-      </c>
-      <c r="B15" s="22">
-        <v>43970</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16" s="24">
-        <v>14</v>
-      </c>
-      <c r="B16" s="22">
-        <v>43971</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="28">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17" s="24">
-        <v>15</v>
-      </c>
-      <c r="B17" s="22">
-        <v>43972</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="28">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="24">
-        <v>16</v>
-      </c>
-      <c r="B18" s="22">
-        <v>43973</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19" s="24">
-        <v>17</v>
-      </c>
-      <c r="B19" s="22">
-        <v>43977</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="28">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1">
-      <c r="A20" s="24">
-        <v>18</v>
-      </c>
-      <c r="B20" s="22">
-        <v>43978</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="24">
-        <v>19</v>
-      </c>
-      <c r="B21" s="22">
-        <v>43979</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="24">
-        <v>20</v>
-      </c>
-      <c r="B22" s="22">
-        <v>43980</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="25">
-        <v>1</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="C23" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="8"/>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="9"/>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="10"/>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="11"/>
-      <c r="C27" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2152,18 +1531,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2189,22 +1568,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -2249,7 +1652,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2266,15 +1669,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2360,7 +1763,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200529.xlsx
+++ b/REVER_DailyTracker_20200529.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54D2A30-F23D-4E4C-B956-18F6F914B04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E7536B-E4FE-473E-9FFB-5FF8C5D2BA0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,23 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -66,43 +72,94 @@
     <t>% of completion</t>
   </si>
   <si>
+    <t>[Backend] CRM</t>
+  </si>
+  <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>29/04/2020</t>
-  </si>
-  <si>
-    <t>Rever B2C</t>
-  </si>
-  <si>
-    <t>IF full flow with technician tracking integration</t>
-  </si>
-  <si>
-    <t>APK sent.</t>
-  </si>
-  <si>
-    <t>Hayaai, RPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Website- changes are documented.   2) Jiffy- bot issue fixed. 3) RPA- Psummary task working in seleinum.                         </t>
-  </si>
-  <si>
-    <t>28/05/2020</t>
-  </si>
-  <si>
-    <t>DOTNET APP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application - Japanese version Translation </t>
-  </si>
-  <si>
-    <t>29/05/2020</t>
-  </si>
-  <si>
-    <t>QMVAR</t>
-  </si>
-  <si>
-    <t>Account Report</t>
+    <t>DotnetAPP</t>
+  </si>
+  <si>
+    <t>Loginpage (Frontend)</t>
+  </si>
+  <si>
+    <t>1. Datass are fetched from CRM table and displayed the results in dropdownlist dynamically
+2. Customer type dropdownlist has been created using using enum and displayed in right order
+3. Working on onchange events to select all emailid based on customer types.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Visited  customer information from the contact us  page of hayaai website has been recorded in the database using
+ PHP and MYQL
+</t>
+  </si>
+  <si>
+    <t>Hayaai website</t>
+  </si>
+  <si>
+    <t>Sending email is in progress</t>
+  </si>
+  <si>
+    <t>data insertion  and email sending are completed, whereas we have tested email sending using gmail.com for contacts.html.
+We are waiting for actual email settings for hayaai site.</t>
+  </si>
+  <si>
+    <t>Email validation and contact number validation has been completed before submiting fields values to the database.</t>
+  </si>
+  <si>
+    <t>RPA_Sale/[Front End]  Full app keyword search</t>
+  </si>
+  <si>
+    <t>Analysing the all tables to fetch all records and keep it as list and obtaining the keyword by filtering from the list and converting 
+the result with paging and pagelisted concept in MVC</t>
+  </si>
+  <si>
+    <t>Searching string in all tables from the entire database has been completed , whereas UI design and development are pending</t>
+  </si>
+  <si>
+    <t>Searching in all tables and fetching the results and displaying the results at bottom of the master pages, whereas other activities
+ like styling and crossref link or sublink tasks are pending.</t>
+  </si>
+  <si>
+    <t>Searching results are coming in right order along with query text, whereas a small design issue is pending and also no data found to be implemented.</t>
+  </si>
+  <si>
+    <t>No data found has been implemented if no records found and etc.
+Attended in RPASale_dev deployeement task</t>
+  </si>
+  <si>
+    <t>Today, I was engaged in rpa selenium tasks for DRS, GRS, and GRD
+DRS was done,
+GRS, till dowload portion is over and whereas, upload is pending as issue in converting xls to csv.</t>
+  </si>
+  <si>
+    <t>Jiffy_to_selenium</t>
+  </si>
+  <si>
+    <t>Conversion from jiffy to selenium for the tasks of Goods Receiving Summary and Goods Receiving details are completed,
+whereas the conversion of warranty is WIP</t>
+  </si>
+  <si>
+    <t>Leave on 22-05-2020</t>
+  </si>
+  <si>
+    <t>RPA Customization</t>
+  </si>
+  <si>
+    <t>Conversion from JIFFY to selenium for the tasks of DRS, GRS and GRD are completed, CSV conversion for warranty is in Pending.</t>
+  </si>
+  <si>
+    <t>Customization of RPA tasks named as GRS and GRD are completed,  no data found for warranty and csv header/contents  validations are in progress. Also DRS no data found is also pending.</t>
+  </si>
+  <si>
+    <t>DRS Daily, DRS Weekly and DRS Monthly are completed with download/upload and no data found.
+Warranty csv file is having issue and hence it has been shared to Mohan san.</t>
+  </si>
+  <si>
+    <t>Warranty CSV file is having uploading issue.</t>
+  </si>
+  <si>
+    <t>POC confirmation task  has been implemented at new bot, and it will work for download and upload success</t>
   </si>
 </sst>
 </file>
@@ -112,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,29 +188,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -233,27 +267,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -270,49 +288,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -623,25 +621,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
+        <v>95</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -660,18 +938,20 @@
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -680,49 +960,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -731,26 +1011,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -773,30 +1054,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -805,163 +1072,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43980</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="21" spans="2:3">
-      <c r="C21" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="8"/>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="9"/>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="10"/>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="11"/>
-      <c r="C25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -971,25 +1124,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1021,7 +1175,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1030,49 +1184,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1082,25 +1236,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1123,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1132,7 +1287,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1141,49 +1296,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1193,25 +1348,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1234,68 +1390,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23">
-        <v>43980</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="F2" s="25" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1305,25 +1472,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1355,7 +1523,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1364,49 +1532,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1416,25 +1584,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1457,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1466,7 +1635,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1475,49 +1644,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1527,25 +1696,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1568,91 +1738,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1662,25 +1808,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1703,7 +1850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1712,7 +1859,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1721,49 +1868,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200529.xlsx
+++ b/REVER_DailyTracker_20200529.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E7536B-E4FE-473E-9FFB-5FF8C5D2BA0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,9 +18,9 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519" iterate="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="39">
   <si>
     <t>Task</t>
   </si>
@@ -160,16 +154,25 @@
   </si>
   <si>
     <t>POC confirmation task  has been implemented at new bot, and it will work for download and upload success</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>Implement Upload Summary &amp; Upload Verification for PO_Confirmation</t>
+  </si>
+  <si>
+    <t>completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -420,7 +423,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -614,33 +617,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -661,7 +664,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -671,8 +674,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -684,7 +687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -695,10 +698,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -712,9 +715,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -728,9 +731,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -744,8 +747,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -762,19 +765,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -792,13 +795,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -812,7 +815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -826,7 +829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -834,7 +837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -842,12 +845,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -855,7 +858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -866,7 +869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -877,7 +880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -888,7 +891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
@@ -900,7 +903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -908,18 +911,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -942,7 +945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -951,7 +954,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -960,46 +963,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1012,7 +1015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1020,18 +1023,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1063,7 +1066,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1072,46 +1075,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1124,26 +1127,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1166,7 +1169,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43960</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1175,7 +1302,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1184,46 +1311,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1235,27 +1362,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1278,7 +1405,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1287,7 +1538,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1296,46 +1547,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1347,27 +1598,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1390,28 +1641,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1420,46 +1659,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1471,27 +1710,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1523,7 +1762,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1532,46 +1771,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1583,27 +1822,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
-  <sheetPr codeName="Sheet7"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1626,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1635,7 +1874,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1644,270 +1883,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200529.xlsx
+++ b/REVER_DailyTracker_20200529.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76BAA2F-F3D0-4D55-B106-CFDEE0CF580B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -18,23 +24,17 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" iterate="1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -163,16 +163,25 @@
   </si>
   <si>
     <t>completed</t>
+  </si>
+  <si>
+    <t>29-05-2020</t>
+  </si>
+  <si>
+    <t>Hayaai APP</t>
+  </si>
+  <si>
+    <t>Technician details API,fcmkey implementation in push notification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,14 +626,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -632,18 +641,18 @@
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -664,7 +673,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -674,8 +683,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -687,7 +696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -698,10 +707,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -715,9 +724,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -731,9 +740,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -747,8 +756,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:7">
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -765,19 +774,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1">
+    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -795,13 +804,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -815,7 +824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -829,7 +838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -837,7 +846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -845,12 +854,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -858,7 +867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -869,7 +878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -880,7 +889,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -891,7 +900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G51" t="s">
         <v>34</v>
       </c>
@@ -903,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -911,18 +920,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -945,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -954,7 +963,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -963,46 +972,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1015,7 +1024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1023,18 +1032,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1057,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1066,7 +1075,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1075,46 +1084,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1127,26 +1136,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="66.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1190,7 +1199,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1199,46 +1208,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1251,26 +1260,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1302,253 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1302,7 +1557,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1311,46 +1566,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1362,27 +1617,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1405,28 +1660,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1435,46 +1678,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1486,27 +1729,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1529,7 +1772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1538,7 +1781,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1547,46 +1790,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1598,27 +1841,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet7"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1641,7 +1884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1650,7 +1893,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1659,270 +1902,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
